--- a/01_Costo_de_Productos.xlsx
+++ b/01_Costo_de_Productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\storr\OneDrive\Documentos\01_JV\10 Curso AD\03 Corfo - Analisis de Datos\01 Curso\02 Obtencion y Preparacion de datos\0 Casos de Uso\2 archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC021042-E0B9-49BA-B373-CC8A8BB15B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479A8F2E-EE8B-44C1-8C8B-E7368AA9D1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{DAED6867-0B23-43B7-854A-145CA08DF440}"/>
   </bookViews>
@@ -71,14 +71,17 @@
     <t>Transporte</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Costo Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +91,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -112,16 +122,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -142,11 +157,11 @@
   <autoFilter ref="A1:F7" xr:uid="{F78B22D2-7AD0-4873-9364-F32AB9A17653}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{234A270B-D48D-4F07-888E-36E77415FEB7}" name="Insumos"/>
-    <tableColumn id="2" xr3:uid="{D36FC062-6644-4116-ADE7-ABC2F9D678BA}" name="Milanesa"/>
-    <tableColumn id="3" xr3:uid="{DBD9E260-0F1F-4624-BDCA-B121D810E4DB}" name="Conconina"/>
-    <tableColumn id="4" xr3:uid="{F19A9363-A6ED-47F7-8451-33A92AA7ED28}" name="Escarola"/>
-    <tableColumn id="5" xr3:uid="{A58D5B09-21DC-46DC-811B-8C7D4A89BDEC}" name="Española"/>
-    <tableColumn id="6" xr3:uid="{5AEBFD19-902E-4768-A559-3C23BB082941}" name="Francesa morada"/>
+    <tableColumn id="2" xr3:uid="{D36FC062-6644-4116-ADE7-ABC2F9D678BA}" name="Milanesa" dataCellStyle="Moneda [0]"/>
+    <tableColumn id="3" xr3:uid="{DBD9E260-0F1F-4624-BDCA-B121D810E4DB}" name="Conconina" dataCellStyle="Moneda [0]"/>
+    <tableColumn id="4" xr3:uid="{F19A9363-A6ED-47F7-8451-33A92AA7ED28}" name="Escarola" dataCellStyle="Moneda [0]"/>
+    <tableColumn id="5" xr3:uid="{A58D5B09-21DC-46DC-811B-8C7D4A89BDEC}" name="Española" dataCellStyle="Moneda [0]"/>
+    <tableColumn id="6" xr3:uid="{5AEBFD19-902E-4768-A559-3C23BB082941}" name="Francesa morada" dataCellStyle="Moneda [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -452,7 +467,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,19 +500,19 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>7</v>
       </c>
     </row>
@@ -505,19 +520,19 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>18</v>
       </c>
     </row>
@@ -525,19 +540,19 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>110</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>106</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>113</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>89</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>115</v>
       </c>
     </row>
@@ -545,19 +560,19 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>58</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>56</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>61</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>53</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>65</v>
       </c>
     </row>
@@ -565,39 +580,39 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>88</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>85</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>90</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>83</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>273</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>262</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>285</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>237</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>297</v>
       </c>
     </row>
